--- a/LR3/table_1_77.xlsx
+++ b/LR3/table_1_77.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72276C-DF76-4E9D-B002-16363F00CA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85337C92-C1FD-4BCA-9AEE-785DA1B210BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5390" yWindow="850" windowWidth="13810" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,6 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Ахтарьянов</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>Максимальная сумма просрочки, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -534,9 +534,9 @@
     <col min="6" max="6" width="21.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="11.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -552,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -584,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>84.7</v>
       </c>
       <c r="E3" s="1">
@@ -625,14 +625,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C38" si="1">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>84.7</v>
       </c>
       <c r="E4" s="1">
@@ -670,14 +670,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">$D$3</f>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>84.7</v>
       </c>
       <c r="E5" s="1">
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
@@ -850,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
@@ -1255,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
@@ -1345,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
@@ -1390,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
@@ -1435,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -1480,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -1525,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -1570,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
@@ -1660,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
@@ -1705,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
@@ -1750,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
@@ -1795,7 +1795,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
@@ -1840,7 +1840,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
@@ -1885,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
@@ -1930,7 +1930,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
@@ -1975,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
@@ -2020,14 +2020,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>42.35</v>
       </c>
       <c r="E35" s="1">
@@ -2065,14 +2065,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f>D3/2</f>
         <v>42.35</v>
       </c>
       <c r="E36" s="1">
@@ -2110,14 +2110,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>42.35</v>
       </c>
       <c r="E37" s="1">
@@ -2155,14 +2155,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>42.35</v>
       </c>
       <c r="E38" s="1">
@@ -2196,7 +2196,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
